--- a/tracking/Tracking - Census Data Pull.xlsx
+++ b/tracking/Tracking - Census Data Pull.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lgero\Documents\Research\FEMA-study\tracking\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AA93FEA-A8D1-49FE-9FA3-97639F951530}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{014EE885-0696-4A31-9764-D6467E23C9CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="51720" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="51720" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Merged" sheetId="5" r:id="rId1"/>
@@ -81,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="64">
   <si>
     <t>year</t>
   </si>
@@ -267,6 +267,12 @@
   </si>
   <si>
     <t>RentOccPct</t>
+  </si>
+  <si>
+    <t>NHGIS Census</t>
+  </si>
+  <si>
+    <t>Merged</t>
   </si>
 </sst>
 </file>
@@ -301,7 +307,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -332,14 +338,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -354,19 +354,6 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -401,48 +388,38 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -450,8 +427,8 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -747,14 +724,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F048F01-EBEC-470B-8EA3-16FB8E7964F0}">
-  <dimension ref="A5:AG30"/>
+  <dimension ref="A5:AG27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R17" sqref="R17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q25" sqref="Q25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
+    <col min="1" max="1" width="13" customWidth="1"/>
     <col min="14" max="15" width="0" hidden="1" customWidth="1"/>
     <col min="17" max="17" width="10.83984375" customWidth="1"/>
     <col min="19" max="19" width="11.89453125" customWidth="1"/>
@@ -762,7 +740,7 @@
     <col min="22" max="22" width="9.20703125" customWidth="1"/>
     <col min="23" max="23" width="11.1015625" customWidth="1"/>
     <col min="24" max="24" width="10.26171875" customWidth="1"/>
-    <col min="25" max="25" width="4.83984375" style="15" customWidth="1"/>
+    <col min="25" max="25" width="4.83984375" style="12" customWidth="1"/>
     <col min="26" max="26" width="16.1015625" customWidth="1"/>
     <col min="27" max="27" width="17.26171875" customWidth="1"/>
     <col min="28" max="28" width="14.734375" customWidth="1"/>
@@ -770,157 +748,224 @@
   </cols>
   <sheetData>
     <row r="5" spans="1:33" x14ac:dyDescent="0.55000000000000004">
-      <c r="Z5" s="17" t="s">
+      <c r="A5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>1</v>
+      </c>
+      <c r="P5">
+        <v>1</v>
+      </c>
+      <c r="Q5">
+        <v>1</v>
+      </c>
+      <c r="S5">
+        <v>1</v>
+      </c>
+      <c r="U5">
+        <v>1</v>
+      </c>
+      <c r="W5">
+        <v>1</v>
+      </c>
+      <c r="X5">
+        <v>1</v>
+      </c>
+      <c r="Z5" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="AA5" s="17"/>
-      <c r="AB5" s="17"/>
-      <c r="AC5" s="17"/>
-    </row>
-    <row r="6" spans="1:33" s="8" customFormat="1" ht="43.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="7" t="s">
+      <c r="AA5" s="16"/>
+      <c r="AB5" s="16"/>
+      <c r="AC5" s="16"/>
+    </row>
+    <row r="6" spans="1:33" s="6" customFormat="1" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="E6" s="18" t="s">
+      <c r="D6" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="G6" s="18" t="s">
+      <c r="G6" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="H6" s="7" t="s">
+      <c r="H6" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="I6" s="18" t="s">
+      <c r="I6" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="J6" s="7" t="s">
+      <c r="J6" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="K6" s="18" t="s">
+      <c r="K6" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="L6" s="7" t="s">
+      <c r="L6" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="M6" s="18" t="s">
+      <c r="M6" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="P6" s="19" t="s">
+      <c r="P6" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="Q6" s="19" t="s">
+      <c r="Q6" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="R6" s="7" t="s">
+      <c r="R6" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="S6" s="18" t="s">
+      <c r="S6" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="T6" s="7" t="s">
+      <c r="T6" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="U6" s="18" t="s">
+      <c r="U6" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="V6" s="7" t="s">
+      <c r="V6" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="W6" s="18" t="s">
+      <c r="W6" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="X6" s="20" t="s">
+      <c r="X6" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="Y6" s="14"/>
-      <c r="Z6" s="10" t="s">
+      <c r="Y6" s="11"/>
+      <c r="Z6" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="AA6" s="9" t="s">
+      <c r="AA6" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="AB6" s="9" t="s">
+      <c r="AB6" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="AC6" s="9" t="s">
+      <c r="AC6" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="AD6" s="7" t="s">
+      <c r="AD6" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="AE6" s="7" t="s">
+      <c r="AE6" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="AF6" s="7" t="s">
+      <c r="AF6" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="AG6" s="18" t="s">
+      <c r="AG6" s="14" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="2"/>
+      <c r="A7" s="2" t="s">
+        <v>62</v>
+      </c>
       <c r="B7" s="2">
         <v>1990</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D7" s="5"/>
-      <c r="E7" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="P7" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="2"/>
-      <c r="S7" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="T7" s="2"/>
-      <c r="U7" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="V7" s="2"/>
-      <c r="W7" s="2"/>
-      <c r="X7" s="2"/>
-      <c r="Z7" s="11" t="s">
+      <c r="C7" s="2">
+        <v>1</v>
+      </c>
+      <c r="D7" s="2">
+        <v>1</v>
+      </c>
+      <c r="E7" s="2">
+        <v>1</v>
+      </c>
+      <c r="F7" s="2">
+        <v>1</v>
+      </c>
+      <c r="G7" s="2">
+        <v>1</v>
+      </c>
+      <c r="H7" s="2">
+        <v>1</v>
+      </c>
+      <c r="I7" s="2">
+        <v>1</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="P7" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>1</v>
+      </c>
+      <c r="R7" s="2">
+        <v>1</v>
+      </c>
+      <c r="S7" s="2">
+        <v>1</v>
+      </c>
+      <c r="T7" s="2">
+        <v>1</v>
+      </c>
+      <c r="U7" s="2">
+        <v>1</v>
+      </c>
+      <c r="V7" s="2">
+        <v>1</v>
+      </c>
+      <c r="W7" s="2">
+        <v>1</v>
+      </c>
+      <c r="X7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z7" s="8" t="s">
         <v>5</v>
       </c>
       <c r="AA7" s="2"/>
       <c r="AB7" s="2"/>
       <c r="AC7" s="2"/>
-      <c r="AD7" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="AE7" s="5"/>
-      <c r="AF7" s="5"/>
-      <c r="AG7" s="5"/>
+      <c r="AD7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE7" s="4"/>
+      <c r="AF7" s="4"/>
+      <c r="AG7" s="4"/>
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="2" t="s">
@@ -986,20 +1031,20 @@
       <c r="W8" s="2">
         <v>1</v>
       </c>
-      <c r="X8" s="4" t="s">
+      <c r="X8" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="Y8" s="16"/>
-      <c r="Z8" s="12">
+      <c r="Y8" s="13"/>
+      <c r="Z8" s="9">
         <v>1</v>
       </c>
       <c r="AA8" s="2"/>
       <c r="AB8" s="2"/>
       <c r="AC8" s="2"/>
-      <c r="AD8" s="5" t="s">
+      <c r="AD8" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="AE8" s="5"/>
+      <c r="AE8" s="4"/>
       <c r="AF8" s="2">
         <v>1</v>
       </c>
@@ -1035,16 +1080,16 @@
       <c r="I9" s="2">
         <v>1</v>
       </c>
-      <c r="J9" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="K9" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="L9" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="M9" s="5" t="s">
+      <c r="J9" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="M9" s="4" t="s">
         <v>5</v>
       </c>
       <c r="P9" s="2">
@@ -1071,24 +1116,24 @@
       <c r="W9" s="2">
         <v>1</v>
       </c>
-      <c r="X9" s="4" t="s">
+      <c r="X9" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="Y9" s="16"/>
-      <c r="Z9" s="12">
+      <c r="Y9" s="13"/>
+      <c r="Z9" s="9">
         <v>1</v>
       </c>
       <c r="AA9" s="2"/>
       <c r="AB9" s="2"/>
       <c r="AC9" s="2"/>
-      <c r="AD9" s="5" t="s">
+      <c r="AD9" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="AE9" s="5"/>
-      <c r="AF9" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="AG9" s="5" t="s">
+      <c r="AE9" s="4"/>
+      <c r="AF9" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AG9" s="4" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1156,20 +1201,20 @@
       <c r="W10" s="2">
         <v>1</v>
       </c>
-      <c r="X10" s="4" t="s">
+      <c r="X10" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="Y10" s="16"/>
-      <c r="Z10" s="13" t="s">
+      <c r="Y10" s="13"/>
+      <c r="Z10" s="10" t="s">
         <v>5</v>
       </c>
       <c r="AA10" s="2"/>
       <c r="AB10" s="2"/>
       <c r="AC10" s="2"/>
-      <c r="AD10" s="5" t="s">
+      <c r="AD10" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="AE10" s="5"/>
+      <c r="AE10" s="4"/>
       <c r="AF10" s="2">
         <v>1</v>
       </c>
@@ -1241,20 +1286,20 @@
       <c r="W11" s="2">
         <v>1</v>
       </c>
-      <c r="X11" s="4" t="s">
+      <c r="X11" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="Y11" s="16"/>
-      <c r="Z11" s="13" t="s">
+      <c r="Y11" s="13"/>
+      <c r="Z11" s="10" t="s">
         <v>5</v>
       </c>
       <c r="AA11" s="2"/>
       <c r="AB11" s="2"/>
       <c r="AC11" s="2"/>
-      <c r="AD11" s="5" t="s">
+      <c r="AD11" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="AE11" s="5"/>
+      <c r="AE11" s="4"/>
       <c r="AF11" s="2"/>
       <c r="AG11" s="2"/>
     </row>
@@ -1322,20 +1367,20 @@
       <c r="W12" s="2">
         <v>1</v>
       </c>
-      <c r="X12" s="4" t="s">
+      <c r="X12" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="Y12" s="16"/>
-      <c r="Z12" s="13" t="s">
+      <c r="Y12" s="13"/>
+      <c r="Z12" s="10" t="s">
         <v>5</v>
       </c>
       <c r="AA12" s="2"/>
       <c r="AB12" s="2"/>
       <c r="AC12" s="2"/>
-      <c r="AD12" s="5" t="s">
+      <c r="AD12" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="AE12" s="5"/>
+      <c r="AE12" s="4"/>
       <c r="AF12" s="2"/>
       <c r="AG12" s="2"/>
     </row>
@@ -1403,20 +1448,20 @@
       <c r="W13" s="2">
         <v>1</v>
       </c>
-      <c r="X13" s="4" t="s">
+      <c r="X13" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="Y13" s="16"/>
-      <c r="Z13" s="13" t="s">
+      <c r="Y13" s="13"/>
+      <c r="Z13" s="10" t="s">
         <v>5</v>
       </c>
       <c r="AA13" s="2"/>
       <c r="AB13" s="2"/>
       <c r="AC13" s="2"/>
-      <c r="AD13" s="5" t="s">
+      <c r="AD13" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="AE13" s="5"/>
+      <c r="AE13" s="4"/>
       <c r="AF13" s="2"/>
       <c r="AG13" s="2"/>
     </row>
@@ -1484,20 +1529,20 @@
       <c r="W14" s="2">
         <v>1</v>
       </c>
-      <c r="X14" s="4" t="s">
+      <c r="X14" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="Y14" s="16"/>
-      <c r="Z14" s="13" t="s">
+      <c r="Y14" s="13"/>
+      <c r="Z14" s="10" t="s">
         <v>5</v>
       </c>
       <c r="AA14" s="2"/>
       <c r="AB14" s="2"/>
       <c r="AC14" s="2"/>
-      <c r="AD14" s="5" t="s">
+      <c r="AD14" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="AE14" s="5"/>
+      <c r="AE14" s="4"/>
       <c r="AF14" s="2"/>
       <c r="AG14" s="2"/>
     </row>
@@ -1565,20 +1610,20 @@
       <c r="W15" s="2">
         <v>1</v>
       </c>
-      <c r="X15" s="4" t="s">
+      <c r="X15" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="Y15" s="16"/>
-      <c r="Z15" s="13" t="s">
+      <c r="Y15" s="13"/>
+      <c r="Z15" s="10" t="s">
         <v>5</v>
       </c>
       <c r="AA15" s="2"/>
       <c r="AB15" s="2"/>
       <c r="AC15" s="2"/>
-      <c r="AD15" s="5" t="s">
+      <c r="AD15" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="AE15" s="5"/>
+      <c r="AE15" s="4"/>
       <c r="AF15" s="2"/>
       <c r="AG15" s="2"/>
     </row>
@@ -1646,20 +1691,20 @@
       <c r="W16" s="2">
         <v>1</v>
       </c>
-      <c r="X16" s="4" t="s">
+      <c r="X16" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="Y16" s="16"/>
-      <c r="Z16" s="13" t="s">
+      <c r="Y16" s="13"/>
+      <c r="Z16" s="10" t="s">
         <v>5</v>
       </c>
       <c r="AA16" s="2"/>
       <c r="AB16" s="2"/>
       <c r="AC16" s="2"/>
-      <c r="AD16" s="5" t="s">
+      <c r="AD16" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="AE16" s="5"/>
+      <c r="AE16" s="4"/>
       <c r="AF16" s="2"/>
       <c r="AG16" s="2"/>
     </row>
@@ -1727,20 +1772,20 @@
       <c r="W17" s="2">
         <v>1</v>
       </c>
-      <c r="X17" s="4" t="s">
+      <c r="X17" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="Y17" s="16"/>
-      <c r="Z17" s="13" t="s">
+      <c r="Y17" s="13"/>
+      <c r="Z17" s="10" t="s">
         <v>5</v>
       </c>
       <c r="AA17" s="2"/>
       <c r="AB17" s="2"/>
       <c r="AC17" s="2"/>
-      <c r="AD17" s="5" t="s">
+      <c r="AD17" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="AE17" s="5"/>
+      <c r="AE17" s="4"/>
       <c r="AF17" s="2"/>
       <c r="AG17" s="2"/>
     </row>
@@ -1808,20 +1853,20 @@
       <c r="W18" s="2">
         <v>1</v>
       </c>
-      <c r="X18" s="4" t="s">
+      <c r="X18" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="Y18" s="16"/>
-      <c r="Z18" s="13" t="s">
+      <c r="Y18" s="13"/>
+      <c r="Z18" s="10" t="s">
         <v>5</v>
       </c>
       <c r="AA18" s="2"/>
       <c r="AB18" s="2"/>
       <c r="AC18" s="2"/>
-      <c r="AD18" s="5" t="s">
+      <c r="AD18" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="AE18" s="5"/>
+      <c r="AE18" s="4"/>
       <c r="AF18" s="2"/>
       <c r="AG18" s="2"/>
     </row>
@@ -1889,20 +1934,20 @@
       <c r="W19" s="2">
         <v>1</v>
       </c>
-      <c r="X19" s="4" t="s">
+      <c r="X19" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="Y19" s="16"/>
-      <c r="Z19" s="13" t="s">
+      <c r="Y19" s="13"/>
+      <c r="Z19" s="10" t="s">
         <v>5</v>
       </c>
       <c r="AA19" s="2"/>
       <c r="AB19" s="2"/>
       <c r="AC19" s="2"/>
-      <c r="AD19" s="5" t="s">
+      <c r="AD19" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="AE19" s="5"/>
+      <c r="AE19" s="4"/>
       <c r="AF19" s="2"/>
       <c r="AG19" s="2"/>
     </row>
@@ -1970,20 +2015,20 @@
       <c r="W20" s="2">
         <v>1</v>
       </c>
-      <c r="X20" s="4" t="s">
+      <c r="X20" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="Y20" s="16"/>
-      <c r="Z20" s="13" t="s">
+      <c r="Y20" s="13"/>
+      <c r="Z20" s="10" t="s">
         <v>5</v>
       </c>
       <c r="AA20" s="2"/>
       <c r="AB20" s="2"/>
       <c r="AC20" s="2"/>
-      <c r="AD20" s="5" t="s">
+      <c r="AD20" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="AE20" s="5"/>
+      <c r="AE20" s="4"/>
       <c r="AF20" s="2"/>
       <c r="AG20" s="2"/>
     </row>
@@ -2051,244 +2096,47 @@
       <c r="W21" s="2">
         <v>1</v>
       </c>
-      <c r="X21" s="4" t="s">
+      <c r="X21" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="Y21" s="16"/>
-      <c r="Z21" s="13" t="s">
+      <c r="Y21" s="13"/>
+      <c r="Z21" s="10" t="s">
         <v>5</v>
       </c>
       <c r="AA21" s="2"/>
       <c r="AB21" s="2"/>
       <c r="AC21" s="2"/>
-      <c r="AD21" s="5" t="s">
+      <c r="AD21" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="AE21" s="5"/>
+      <c r="AE21" s="4"/>
       <c r="AF21" s="2"/>
       <c r="AG21" s="2"/>
     </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.55000000000000004">
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
-      <c r="K22" s="6"/>
-      <c r="L22" s="6"/>
-      <c r="M22" s="6"/>
-      <c r="P22" s="6"/>
-      <c r="Q22" s="6"/>
-      <c r="R22" s="6"/>
-      <c r="S22" s="6"/>
-      <c r="T22" s="6"/>
-      <c r="U22" s="6"/>
-      <c r="V22" s="6"/>
-      <c r="W22" s="6"/>
-      <c r="AD22" s="6"/>
-      <c r="AE22" s="6"/>
-      <c r="AF22" s="6"/>
-      <c r="AG22" s="6"/>
-    </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.55000000000000004">
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
-      <c r="J23" s="6"/>
-      <c r="K23" s="6"/>
-      <c r="L23" s="6"/>
-      <c r="M23" s="6"/>
-      <c r="P23" s="6"/>
-      <c r="Q23" s="6"/>
-      <c r="R23" s="6"/>
-      <c r="S23" s="6"/>
-      <c r="T23" s="6"/>
-      <c r="U23" s="6"/>
-      <c r="V23" s="6"/>
-      <c r="W23" s="6"/>
-      <c r="AD23" s="6"/>
-      <c r="AE23" s="6"/>
-      <c r="AF23" s="6"/>
-      <c r="AG23" s="6"/>
-    </row>
-    <row r="24" spans="1:33" x14ac:dyDescent="0.55000000000000004">
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
-      <c r="J24" s="6"/>
-      <c r="K24" s="6"/>
-      <c r="L24" s="6"/>
-      <c r="M24" s="6"/>
-      <c r="P24" s="6"/>
-      <c r="Q24" s="6"/>
-      <c r="R24" s="6"/>
-      <c r="S24" s="6"/>
-      <c r="T24" s="6"/>
-      <c r="U24" s="6"/>
-      <c r="V24" s="6"/>
-      <c r="W24" s="6"/>
-      <c r="AD24" s="6"/>
-      <c r="AE24" s="6"/>
-      <c r="AF24" s="6"/>
-      <c r="AG24" s="6"/>
-    </row>
     <row r="25" spans="1:33" x14ac:dyDescent="0.55000000000000004">
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="6"/>
-      <c r="J25" s="6"/>
-      <c r="K25" s="6"/>
-      <c r="L25" s="6"/>
-      <c r="M25" s="6"/>
-      <c r="P25" s="6"/>
-      <c r="Q25" s="6"/>
-      <c r="R25" s="6"/>
-      <c r="S25" s="6"/>
-      <c r="T25" s="6"/>
-      <c r="U25" s="6"/>
-      <c r="V25" s="6"/>
-      <c r="W25" s="6"/>
-      <c r="AD25" s="6"/>
-      <c r="AE25" s="6"/>
-      <c r="AF25" s="6"/>
-      <c r="AG25" s="6"/>
+      <c r="AD25" s="2"/>
+      <c r="AE25" s="2"/>
     </row>
     <row r="26" spans="1:33" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H26" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="I26" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J26" s="2"/>
-      <c r="K26" s="2" t="s">
+      <c r="L26" s="1"/>
+      <c r="N26" t="s">
+        <v>17</v>
+      </c>
+      <c r="O26" t="s">
         <v>16</v>
       </c>
-      <c r="L26" s="2"/>
-      <c r="M26" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="N26" s="2"/>
-      <c r="O26" s="2"/>
-      <c r="P26" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q26" s="2"/>
-      <c r="R26" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="S26" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="T26" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="U26" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="V26" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="W26" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AD26" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="AD26" s="2"/>
       <c r="AE26" s="2"/>
-      <c r="AF26" s="2"/>
-      <c r="AG26" s="2"/>
     </row>
     <row r="27" spans="1:33" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2">
-        <v>1990</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="J27" s="2"/>
-      <c r="K27" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="L27" s="2"/>
-      <c r="M27" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="N27" s="2"/>
-      <c r="O27" s="2"/>
-      <c r="P27" s="2"/>
-      <c r="Q27" s="2"/>
-      <c r="R27" s="2"/>
-      <c r="S27" s="2"/>
-      <c r="T27" s="2"/>
-      <c r="U27" s="2"/>
-      <c r="V27" s="2"/>
-      <c r="W27" s="2"/>
+      <c r="N27" t="s">
+        <v>5</v>
+      </c>
+      <c r="O27" t="s">
+        <v>5</v>
+      </c>
       <c r="AD27" s="2"/>
       <c r="AE27" s="2"/>
-      <c r="AF27" s="2"/>
-      <c r="AG27" s="2"/>
-    </row>
-    <row r="28" spans="1:33" x14ac:dyDescent="0.55000000000000004">
-      <c r="AD28" s="2"/>
-      <c r="AE28" s="2"/>
-    </row>
-    <row r="29" spans="1:33" x14ac:dyDescent="0.55000000000000004">
-      <c r="AD29" s="2"/>
-      <c r="AE29" s="2"/>
-    </row>
-    <row r="30" spans="1:33" x14ac:dyDescent="0.55000000000000004">
-      <c r="AD30" s="2"/>
-      <c r="AE30" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2304,7 +2152,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
@@ -2886,7 +2734,7 @@
   <dimension ref="A1:M26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:J26"/>
+      <selection activeCell="M7" sqref="A6:M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
